--- a/smallroad-web/Documentos/Teste de Caixa Preta - Smallroad.xlsx
+++ b/smallroad-web/Documentos/Teste de Caixa Preta - Smallroad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t xml:space="preserve">Feature </t>
   </si>
@@ -300,6 +300,36 @@
   </si>
   <si>
     <t>Deletou a nota selecionada</t>
+  </si>
+  <si>
+    <t>Tela de Roteiro</t>
+  </si>
+  <si>
+    <t>Botão - Iniciar Jornada</t>
+  </si>
+  <si>
+    <t>Mudar para tela de entregas, com as Notas Ficas do roteiro selecoinado ordenadas pelo grafo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão - Editar </t>
+  </si>
+  <si>
+    <t>Navegar para tela de edição de roteiro</t>
+  </si>
+  <si>
+    <t>Erro 404</t>
+  </si>
+  <si>
+    <t>CR - 00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluir o roteiro </t>
+  </si>
+  <si>
+    <t>Botão - Novo Roteiro</t>
+  </si>
+  <si>
+    <t>Direcionar pra tela de seleção de nostas fiscais para o novo roteiro</t>
   </si>
 </sst>
 </file>
@@ -417,11 +447,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -746,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,34 +791,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -826,7 +856,7 @@
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -846,7 +876,7 @@
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -866,7 +896,7 @@
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -886,7 +916,7 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -904,7 +934,7 @@
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -922,7 +952,7 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -940,7 +970,7 @@
       <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -958,7 +988,7 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -976,7 +1006,7 @@
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -994,7 +1024,7 @@
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1012,7 +1042,7 @@
       <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1030,7 +1060,7 @@
       <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1048,7 +1078,7 @@
       <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1068,7 +1098,7 @@
       <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1086,7 +1116,7 @@
       <c r="E19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -1104,7 +1134,7 @@
       <c r="E20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1122,7 +1152,7 @@
       <c r="E21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1140,7 +1170,7 @@
       <c r="E22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1158,7 +1188,7 @@
       <c r="E23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1176,7 +1206,7 @@
       <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1194,7 +1224,7 @@
       <c r="E25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -1212,7 +1242,7 @@
       <c r="E26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1232,7 +1262,7 @@
       <c r="E27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -1250,7 +1280,7 @@
       <c r="E28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1268,7 +1298,7 @@
       <c r="E29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -1286,47 +1316,79 @@
       <c r="E30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B31" s="1">
         <v>27</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B32" s="1">
         <v>28</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>29</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>30</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -1336,7 +1398,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
@@ -1346,7 +1408,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -1356,7 +1418,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
@@ -1366,7 +1428,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -1376,7 +1438,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
@@ -1386,7 +1448,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -1396,7 +1458,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -1406,7 +1468,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
@@ -1416,7 +1478,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
@@ -1426,7 +1488,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
@@ -1436,7 +1498,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
@@ -1446,7 +1508,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
@@ -1456,7 +1518,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -1466,7 +1528,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="4"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -1476,7 +1538,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -1486,7 +1548,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
@@ -1496,7 +1558,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -1506,7 +1568,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
@@ -1516,7 +1578,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="4"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
@@ -1526,7 +1588,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
@@ -1536,7 +1598,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
@@ -1546,7 +1608,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
@@ -1556,7 +1618,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="4"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
@@ -1566,7 +1628,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -1576,7 +1638,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="4"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
@@ -1586,7 +1648,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="4"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
@@ -1596,7 +1658,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="4"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
@@ -1606,7 +1668,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="4"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
@@ -1616,7 +1678,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="4"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
@@ -1626,7 +1688,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="4"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
@@ -1636,7 +1698,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
